--- a/0.사업예산관리/예산신청/인건비/급여.xlsx
+++ b/0.사업예산관리/예산신청/인건비/급여.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0. 연구실실무\0.특화분야_예비창업패키지\0.사업예산관리\예산신청\인건비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PKNU\Desktop\조롱이\0.사업예산관리\예산신청\인건비\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,15 +134,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0_ "/>
-    <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -168,7 +168,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -176,28 +176,28 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -205,7 +205,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -213,7 +213,7 @@
     <font>
       <b/>
       <sz val="22"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -221,7 +221,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -230,14 +230,14 @@
       <b/>
       <sz val="9"/>
       <color indexed="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -245,7 +245,7 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -254,7 +254,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -262,7 +262,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -271,7 +271,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -280,7 +280,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -438,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -452,106 +452,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,83 +560,83 @@
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -14590,25 +14590,25 @@
   </sheetPr>
   <dimension ref="A1:AF38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="16" width="9" style="3"/>
     <col min="17" max="30" width="9" style="4"/>
     <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="7" customFormat="1" ht="28.5">
+    <row r="1" spans="1:32" s="7" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
@@ -14636,7 +14636,7 @@
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:32" ht="21" customHeight="1">
+    <row r="2" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="19"/>
       <c r="C2" s="13"/>
@@ -14646,7 +14646,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1">
+    <row r="3" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
@@ -14684,7 +14684,7 @@
       <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
     </row>
-    <row r="4" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="32" t="s">
         <v>12</v>
       </c>
@@ -14730,7 +14730,7 @@
       <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
     </row>
-    <row r="5" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="5" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>14</v>
       </c>
@@ -14773,7 +14773,7 @@
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
     </row>
-    <row r="6" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="6" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="40" t="s">
         <v>15</v>
       </c>
@@ -14816,21 +14816,21 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
     </row>
-    <row r="7" spans="1:32" ht="24.95" customHeight="1">
+    <row r="7" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43"/>
       <c r="B7" s="44"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="59"/>
+      <c r="G7" s="62"/>
       <c r="H7" s="45"/>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
     </row>
-    <row r="8" spans="1:32" s="23" customFormat="1" ht="12.75">
+    <row r="8" spans="1:32" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
       <c r="B8" s="22"/>
       <c r="I8" s="24"/>
@@ -14850,7 +14850,7 @@
       <c r="AC8" s="25"/>
       <c r="AD8" s="25"/>
     </row>
-    <row r="9" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1">
+    <row r="9" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="I9" s="24"/>
@@ -14870,10 +14870,10 @@
       <c r="AC9" s="25"/>
       <c r="AD9" s="25"/>
     </row>
-    <row r="10" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1">
+    <row r="10" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="58" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -14909,10 +14909,10 @@
       <c r="AC10" s="25"/>
       <c r="AD10" s="25"/>
     </row>
-    <row r="11" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="11" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="60"/>
+      <c r="C11" s="58"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -14937,7 +14937,7 @@
       <c r="AC11" s="25"/>
       <c r="AD11" s="25"/>
     </row>
-    <row r="12" spans="1:32" s="23" customFormat="1" ht="12.75">
+    <row r="12" spans="1:32" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="I12" s="24"/>
@@ -14957,7 +14957,7 @@
       <c r="AC12" s="25"/>
       <c r="AD12" s="25"/>
     </row>
-    <row r="13" spans="1:32" s="23" customFormat="1" ht="12.75">
+    <row r="13" spans="1:32" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="I13" s="24"/>
@@ -14977,7 +14977,7 @@
       <c r="AC13" s="25"/>
       <c r="AD13" s="25"/>
     </row>
-    <row r="14" spans="1:32" s="7" customFormat="1" ht="28.5">
+    <row r="14" spans="1:32" s="7" customFormat="1" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A14" s="27" t="s">
         <v>23</v>
       </c>
@@ -15005,7 +15005,7 @@
       <c r="AC14" s="9"/>
       <c r="AD14" s="9"/>
     </row>
-    <row r="15" spans="1:32" ht="21" customHeight="1">
+    <row r="15" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="19"/>
       <c r="C15" s="13"/>
@@ -15015,7 +15015,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1">
+    <row r="16" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>8</v>
       </c>
@@ -15053,7 +15053,7 @@
       <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
     </row>
-    <row r="17" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="17" spans="1:32" s="15" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32" t="s">
         <v>12</v>
       </c>
@@ -15099,7 +15099,7 @@
       <c r="AE17" s="16"/>
       <c r="AF17" s="16"/>
     </row>
-    <row r="18" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1">
+    <row r="18" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>14</v>
       </c>
@@ -15141,7 +15141,7 @@
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
     </row>
-    <row r="19" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="19" spans="1:32" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>15</v>
       </c>
@@ -15196,21 +15196,25 @@
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
     </row>
-    <row r="20" spans="1:32" ht="24.95" customHeight="1">
+    <row r="20" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="44"/>
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="59"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="45"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
+      <c r="N20" s="3">
+        <f>SUM(H19,H24)</f>
+        <v>46110</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" s="23" customFormat="1" ht="12.75">
+    <row r="21" spans="1:32" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="21"/>
       <c r="B21" s="22"/>
       <c r="I21" s="24"/>
@@ -15230,7 +15234,7 @@
       <c r="AC21" s="25"/>
       <c r="AD21" s="25"/>
     </row>
-    <row r="22" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1">
+    <row r="22" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="I22" s="24"/>
@@ -15250,10 +15254,10 @@
       <c r="AC22" s="25"/>
       <c r="AD22" s="25"/>
     </row>
-    <row r="23" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1">
+    <row r="23" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="58" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -15289,10 +15293,10 @@
       <c r="AC23" s="25"/>
       <c r="AD23" s="25"/>
     </row>
-    <row r="24" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1">
+    <row r="24" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="60"/>
+      <c r="C24" s="58"/>
       <c r="E24" s="49">
         <f>ROUNDDOWN(I18*4.5%,-1)</f>
         <v>112180</v>
@@ -15329,7 +15333,7 @@
       <c r="AC24" s="25"/>
       <c r="AD24" s="25"/>
     </row>
-    <row r="27" spans="1:32" ht="28.5">
+    <row r="27" spans="1:32" ht="33.75" x14ac:dyDescent="0.3">
       <c r="A27" s="52" t="s">
         <v>24</v>
       </c>
@@ -15343,7 +15347,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="19"/>
       <c r="C28" s="13"/>
@@ -15353,7 +15357,7 @@
       <c r="G28" s="11"/>
       <c r="H28" s="12"/>
     </row>
-    <row r="29" spans="1:32" ht="15.75">
+    <row r="29" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>8</v>
       </c>
@@ -15365,10 +15369,10 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="60"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
         <v>10</v>
@@ -15377,7 +15381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="16.5" thickBot="1">
+    <row r="30" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="32" t="s">
         <v>12</v>
       </c>
@@ -15407,7 +15411,7 @@
       </c>
       <c r="J30" s="55"/>
     </row>
-    <row r="31" spans="1:32" ht="15.75">
+    <row r="31" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
         <v>14</v>
       </c>
@@ -15431,7 +15435,7 @@
         <v>2214380</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="16.5" thickBot="1">
+    <row r="32" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="40" t="s">
         <v>15</v>
       </c>
@@ -15469,7 +15473,7 @@
       </c>
       <c r="J32" s="57"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>14</v>
       </c>
@@ -15477,7 +15481,8 @@
         <v>44069</v>
       </c>
       <c r="C33" s="37">
-        <v>2200000</v>
+        <f>B34*24</f>
+        <v>2021040</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -15486,52 +15491,52 @@
       <c r="H33" s="38"/>
       <c r="I33" s="39">
         <f>SUM(C33:H33)</f>
-        <v>2200000</v>
+        <v>2021040</v>
       </c>
       <c r="J33" s="56">
         <f>I33-I34</f>
-        <v>1954110</v>
+        <v>1795180</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" thickBot="1">
+    <row r="34" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="40" t="s">
         <v>26</v>
       </c>
       <c r="B34" s="51">
-        <f>ROUNDDOWN(C33/209*8,-1)</f>
+        <f>ROUNDDOWN(2200000/209*8,-1)</f>
         <v>84210</v>
       </c>
       <c r="C34" s="41">
         <f>ROUNDDOWN(I33*2%,-1)</f>
-        <v>44000</v>
+        <v>40420</v>
       </c>
       <c r="D34" s="41">
         <f>ROUNDDOWN(C34*0.1,-1)</f>
-        <v>4400</v>
+        <v>4040</v>
       </c>
       <c r="E34" s="41">
         <f>ROUNDDOWN(I33*4.5%,-1)</f>
-        <v>99000</v>
+        <v>90940</v>
       </c>
       <c r="F34" s="42">
         <f>ROUNDDOWN(I33*3.335%,-1)</f>
-        <v>73370</v>
+        <v>67400</v>
       </c>
       <c r="G34" s="42">
         <f>ROUNDDOWN(F34*10.25%,-1)</f>
-        <v>7520</v>
+        <v>6900</v>
       </c>
       <c r="H34" s="41">
         <f>ROUNDDOWN(I33*0.8%,-1)</f>
-        <v>17600</v>
+        <v>16160</v>
       </c>
       <c r="I34" s="48">
         <f>SUM(C34:H34)</f>
-        <v>245890</v>
+        <v>225860</v>
       </c>
       <c r="J34" s="57"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75">
+    <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="23"/>
@@ -15542,15 +15547,19 @@
       <c r="H35" s="23"/>
       <c r="I35" s="24"/>
       <c r="J35" s="25"/>
+      <c r="N35" s="3">
+        <f>48*4</f>
+        <v>192</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1">
+    <row r="36" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
     </row>
-    <row r="37" spans="1:10" ht="27" customHeight="1">
+    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="58" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="23"/>
@@ -15573,8 +15582,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="28.5" customHeight="1">
-      <c r="C38" s="60"/>
+    <row r="38" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="58"/>
       <c r="D38" s="23"/>
       <c r="E38" s="49">
         <f>ROUNDDOWN(I31*4.5%,-1)</f>
@@ -15592,30 +15601,32 @@
         <f>ROUNDDOWN(I31*1.05%,-1)</f>
         <v>26170</v>
       </c>
-      <c r="I38" s="26"/>
+      <c r="I38" s="26">
+        <v>19690</v>
+      </c>
       <c r="J38" s="50">
         <f>SUM(E38:I38)</f>
-        <v>230010</v>
+        <v>249700</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/0.사업예산관리/예산신청/인건비/급여.xlsx
+++ b/0.사업예산관리/예산신청/인건비/급여.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -127,6 +127,17 @@
   </si>
   <si>
     <t>강산</t>
+  </si>
+  <si>
+    <t>▥ 11월 지급대장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산재(1자리수 버림) =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요율=7.9 ??</t>
   </si>
 </sst>
 </file>
@@ -448,7 +459,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -611,6 +622,9 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,6 +637,12 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -632,11 +652,8 @@
     <xf numFmtId="177" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -9680,6 +9697,4222 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="8162925"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="269" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="277" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="279" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="280" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="281" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="282" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="283" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="284" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="285" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="286" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="287" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="297" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="7991475"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="298" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="299" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="300" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="301" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="302" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="303" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="304" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="305" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="306" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="307" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="308" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="309" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="310" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="311" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="312" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="313" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="314" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="315" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="316" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="317" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="318" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="319" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="320" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="321" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="322" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="323" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="324" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="325" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="326" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="327" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="328" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="329" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="330" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="331" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="332" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="333" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8439150"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="334" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="335" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="336" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="337" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="338" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="339" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="340" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="341" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="342" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="343" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="344" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="345" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="346" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="347" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="348" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="349" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="350" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="352" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="353" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="354" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="355" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="357" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="358" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="359" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="360" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="361" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="362" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="363" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="364" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="365" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="366" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="367" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="368" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="369" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="8886825"/>
           <a:ext cx="95250" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14588,10 +18821,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF38"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -14603,7 +18836,9 @@
     <col min="5" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9" style="3"/>
+    <col min="11" max="13" width="9" style="3"/>
+    <col min="14" max="14" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="3"/>
     <col min="17" max="30" width="9" style="4"/>
     <col min="31" max="16384" width="9" style="3"/>
   </cols>
@@ -14617,8 +18852,8 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="8"/>
       <c r="J1" s="1"/>
       <c r="Q1" s="9"/>
@@ -14664,7 +18899,7 @@
       <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="14"/>
@@ -14712,7 +18947,7 @@
       <c r="I4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="55"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="14"/>
       <c r="L4" s="4"/>
       <c r="S4" s="16"/>
@@ -14750,7 +18985,7 @@
         <f>SUM(C5:H5)</f>
         <v>381680</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="57">
         <f>I5-I6</f>
         <v>373290</v>
       </c>
@@ -14797,7 +19032,7 @@
         <f>SUM(C6:H6)</f>
         <v>8390</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="58"/>
       <c r="N6" s="5" t="s">
         <v>0</v>
       </c>
@@ -14822,10 +19057,10 @@
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="60"/>
       <c r="H7" s="45"/>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
@@ -14873,7 +19108,7 @@
     <row r="10" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="61" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -14912,7 +19147,7 @@
     <row r="11" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="58"/>
+      <c r="C11" s="61"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -14986,8 +19221,8 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="Q14" s="9"/>
@@ -15033,7 +19268,7 @@
       <c r="I16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="54" t="s">
+      <c r="J16" s="55" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="14"/>
@@ -15081,7 +19316,7 @@
       <c r="I17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="55"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="S17" s="16"/>
@@ -15118,7 +19353,7 @@
         <f>SUM(C18:H18)</f>
         <v>2493000</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="57">
         <f>I18-I19</f>
         <v>2214380</v>
       </c>
@@ -15177,7 +19412,7 @@
         <f>SUM(C19:H19)</f>
         <v>278620</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="58"/>
       <c r="N19" s="5" t="s">
         <v>0</v>
       </c>
@@ -15202,10 +19437,10 @@
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="61" t="s">
+      <c r="F20" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="45"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
@@ -15257,7 +19492,7 @@
     <row r="23" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="61" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -15296,7 +19531,7 @@
     <row r="24" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="58"/>
+      <c r="C24" s="61"/>
       <c r="E24" s="49">
         <f>ROUNDDOWN(I18*4.5%,-1)</f>
         <v>112180</v>
@@ -15342,8 +19577,8 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
       <c r="I27" s="8"/>
       <c r="J27" s="1"/>
     </row>
@@ -15369,15 +19604,15 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="60"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="54" t="s">
+      <c r="J29" s="55" t="s">
         <v>11</v>
       </c>
     </row>
@@ -15409,7 +19644,7 @@
       <c r="I30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="55"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
@@ -15430,7 +19665,7 @@
         <f>SUM(C31:H31)</f>
         <v>2493000</v>
       </c>
-      <c r="J31" s="56">
+      <c r="J31" s="57">
         <f>I31-I32</f>
         <v>2214380</v>
       </c>
@@ -15471,7 +19706,7 @@
         <f>SUM(C32:H32)</f>
         <v>278620</v>
       </c>
-      <c r="J32" s="57"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
@@ -15493,7 +19728,7 @@
         <f>SUM(C33:H33)</f>
         <v>2021040</v>
       </c>
-      <c r="J33" s="56">
+      <c r="J33" s="57">
         <f>I33-I34</f>
         <v>1795180</v>
       </c>
@@ -15534,7 +19769,7 @@
         <f>SUM(C34:H34)</f>
         <v>225860</v>
       </c>
-      <c r="J34" s="57"/>
+      <c r="J34" s="58"/>
     </row>
     <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
@@ -15559,7 +19794,7 @@
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="61" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="23"/>
@@ -15583,7 +19818,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="58"/>
+      <c r="C38" s="61"/>
       <c r="D38" s="23"/>
       <c r="E38" s="49">
         <f>ROUNDDOWN(I31*4.5%,-1)</f>
@@ -15601,7 +19836,7 @@
         <f>ROUNDDOWN(I31*1.05%,-1)</f>
         <v>26170</v>
       </c>
-      <c r="I38" s="26">
+      <c r="I38" s="49">
         <v>19690</v>
       </c>
       <c r="J38" s="50">
@@ -15609,24 +19844,323 @@
         <v>249700</v>
       </c>
     </row>
+    <row r="41" spans="1:14" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G43" s="63"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="56"/>
+    </row>
+    <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="36">
+        <v>44069</v>
+      </c>
+      <c r="C45" s="37">
+        <v>2493000</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39">
+        <f>SUM(C45:H45)</f>
+        <v>2493000</v>
+      </c>
+      <c r="J45" s="57">
+        <f>I45-I46</f>
+        <v>2214380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="51">
+        <f>ROUNDDOWN(2493000/209*8,-1)</f>
+        <v>95420</v>
+      </c>
+      <c r="C46" s="41">
+        <f>ROUNDDOWN(I45*2%,-1)</f>
+        <v>49860</v>
+      </c>
+      <c r="D46" s="41">
+        <f>ROUNDDOWN(C46*0.1,-1)</f>
+        <v>4980</v>
+      </c>
+      <c r="E46" s="41">
+        <f>ROUNDDOWN(I45*4.5%,-1)</f>
+        <v>112180</v>
+      </c>
+      <c r="F46" s="42">
+        <f>ROUNDDOWN(I45*3.335%,-1)</f>
+        <v>83140</v>
+      </c>
+      <c r="G46" s="42">
+        <f>ROUNDDOWN(F46*10.25%,-1)</f>
+        <v>8520</v>
+      </c>
+      <c r="H46" s="41">
+        <f>ROUNDDOWN(I45*0.8%,-1)</f>
+        <v>19940</v>
+      </c>
+      <c r="I46" s="48">
+        <f>SUM(C46:H46)</f>
+        <v>278620</v>
+      </c>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A47" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="36">
+        <v>44069</v>
+      </c>
+      <c r="C47" s="37">
+        <v>2200000</v>
+      </c>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39">
+        <f>SUM(C47:H47)</f>
+        <v>2200000</v>
+      </c>
+      <c r="J47" s="57">
+        <f>I47-I48</f>
+        <v>1954110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="51">
+        <f>ROUNDDOWN(2200000/209*8,-1)</f>
+        <v>84210</v>
+      </c>
+      <c r="C48" s="41">
+        <f>ROUNDDOWN(I47*2%,-1)</f>
+        <v>44000</v>
+      </c>
+      <c r="D48" s="41">
+        <f>ROUNDDOWN(C48*0.1,-1)</f>
+        <v>4400</v>
+      </c>
+      <c r="E48" s="41">
+        <f>ROUNDDOWN(I47*4.5%,-1)</f>
+        <v>99000</v>
+      </c>
+      <c r="F48" s="42">
+        <f>ROUNDDOWN(I47*3.335%,-1)</f>
+        <v>73370</v>
+      </c>
+      <c r="G48" s="42">
+        <f>ROUNDDOWN(F48*10.25%,-1)</f>
+        <v>7520</v>
+      </c>
+      <c r="H48" s="41">
+        <f>ROUNDDOWN(I47*0.8%,-1)</f>
+        <v>17600</v>
+      </c>
+      <c r="I48" s="48">
+        <f>SUM(C48:H48)</f>
+        <v>245890</v>
+      </c>
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:19" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+    </row>
+    <row r="50" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="S51" s="2"/>
+    </row>
+    <row r="52" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="61"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="49">
+        <f>ROUNDDOWN(I45*4.5%,-1)+ROUNDDOWN(I47*4.5%,-1)</f>
+        <v>211180</v>
+      </c>
+      <c r="F52" s="49">
+        <f>ROUNDDOWN(I45*3.335%,-1)+ROUNDDOWN(I47*3.335%,-1)</f>
+        <v>156510</v>
+      </c>
+      <c r="G52" s="49">
+        <f>ROUNDDOWN(F52*10.25%,-1)</f>
+        <v>16040</v>
+      </c>
+      <c r="H52" s="49">
+        <f>ROUNDDOWN(I45*1.05%,-1)+ROUNDDOWN(I47*1.05%,-1)</f>
+        <v>49270</v>
+      </c>
+      <c r="I52" s="49">
+        <v>37070</v>
+      </c>
+      <c r="J52" s="50">
+        <f>SUM(E52:I52)</f>
+        <v>470070</v>
+      </c>
+      <c r="M52" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="N52" s="3">
+        <f>C45*7.9/1000</f>
+        <v>19694.7</v>
+      </c>
+      <c r="O52" s="3">
+        <f>C47*7.9/1000</f>
+        <v>17380</v>
+      </c>
+      <c r="P52" s="3">
+        <f>SUM(N52:O52)</f>
+        <v>37074.699999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M53" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S53" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J3:J4"/>
+  <mergeCells count="22">
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C23:C24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/0.사업예산관리/예산신청/인건비/급여.xlsx
+++ b/0.사업예산관리/예산신청/인건비/급여.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="41">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -138,6 +138,50 @@
   </si>
   <si>
     <t>요율=7.9 ??</t>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저번달에 못받은 산재보험금=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저번달에 못받은 고용보험금=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▥ 12월 지급대장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*고용보험 산재보험료만 추가로받은거인듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업비 요청 지급액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월(국민건강보험 표시된 금액)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -311,7 +355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -444,6 +488,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -459,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,17 +722,50 @@
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,15 +775,6 @@
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13913,6 +14034,4222 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="8886825"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="370" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="371" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="372" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="373" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="374" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="375" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="376" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="259896"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="377" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="259896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="378" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="379" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="380" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="381" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="382" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="383" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="384" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="221796"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="385" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="221796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="386" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="387" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="388" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="231321"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="389" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="231321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="390" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="391" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="392" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="289831"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="393" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="289831"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="394" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="395" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="396" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="397" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="398" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="399" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="400" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="401" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="402" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="403" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="404" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="238125"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="405" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="406" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="407" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="408" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="409" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="410" name="Text Box 5"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="411" name="Text Box 6"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="412" name="Text Box 7"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="200025"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="413" name="Text Box 8"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="414" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="415" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="416" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="209550"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="417" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="418" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="419" name="Text Box 2"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="420" name="Text Box 3"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="268061"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="421" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11325225"/>
+          <a:ext cx="95250" cy="268061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="422" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="423" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="424" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="425" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="426" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="427" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="428" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="429" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="430" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="431" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="432" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="433" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="434" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="435" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="436" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="437" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="438" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="439" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="440" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="441" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="442" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="443" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="444" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="445" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="446" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="447" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="448" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="449" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="450" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="451" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="452" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="453" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="454" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="455" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="456" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="457" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11772900"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="458" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="459" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="460" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="461" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="462" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="463" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="464" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="465" name="Text Box 4"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="466" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="467" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="468" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="469" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="470" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="471" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="472" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="473" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="474" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="475" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="476" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="477" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="478" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="479" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="480" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="481" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="482" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="483" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="484" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="485" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="486" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="487" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="488" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="489" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="490" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="491" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="492" name="Text Box 31"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
+          <a:ext cx="95250" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="95250" cy="38100"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="493" name="Text Box 32"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="12220575"/>
           <a:ext cx="95250" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18821,10 +23158,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -18836,7 +23173,8 @@
     <col min="5" max="8" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="9" style="3"/>
+    <col min="11" max="12" width="9" style="3"/>
+    <col min="13" max="13" width="22.5" style="3" customWidth="1"/>
     <col min="14" max="14" width="9.75" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="9" style="3"/>
     <col min="17" max="30" width="9" style="4"/>
@@ -18852,8 +23190,8 @@
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
       <c r="I1" s="8"/>
       <c r="J1" s="1"/>
       <c r="Q1" s="9"/>
@@ -18899,7 +23237,7 @@
       <c r="I3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="68" t="s">
         <v>11</v>
       </c>
       <c r="K3" s="14"/>
@@ -18947,7 +23285,7 @@
       <c r="I4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="56"/>
+      <c r="J4" s="69"/>
       <c r="K4" s="14"/>
       <c r="L4" s="4"/>
       <c r="S4" s="16"/>
@@ -18985,7 +23323,7 @@
         <f>SUM(C5:H5)</f>
         <v>381680</v>
       </c>
-      <c r="J5" s="57">
+      <c r="J5" s="59">
         <f>I5-I6</f>
         <v>373290</v>
       </c>
@@ -19032,7 +23370,7 @@
         <f>SUM(C6:H6)</f>
         <v>8390</v>
       </c>
-      <c r="J6" s="58"/>
+      <c r="J6" s="60"/>
       <c r="N6" s="5" t="s">
         <v>0</v>
       </c>
@@ -19057,10 +23395,10 @@
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="45"/>
       <c r="I7" s="46"/>
       <c r="J7" s="47"/>
@@ -19108,7 +23446,7 @@
     <row r="10" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="72" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="30" t="s">
@@ -19147,7 +23485,7 @@
     <row r="11" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
-      <c r="C11" s="61"/>
+      <c r="C11" s="72"/>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
       <c r="G11" s="49"/>
@@ -19221,8 +23559,8 @@
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="Q14" s="9"/>
@@ -19268,7 +23606,7 @@
       <c r="I16" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="55" t="s">
+      <c r="J16" s="68" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="14"/>
@@ -19316,7 +23654,7 @@
       <c r="I17" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="56"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="14"/>
       <c r="L17" s="4"/>
       <c r="S17" s="16"/>
@@ -19353,7 +23691,7 @@
         <f>SUM(C18:H18)</f>
         <v>2493000</v>
       </c>
-      <c r="J18" s="57">
+      <c r="J18" s="59">
         <f>I18-I19</f>
         <v>2214380</v>
       </c>
@@ -19412,7 +23750,7 @@
         <f>SUM(C19:H19)</f>
         <v>278620</v>
       </c>
-      <c r="J19" s="58"/>
+      <c r="J19" s="60"/>
       <c r="N19" s="5" t="s">
         <v>0</v>
       </c>
@@ -19437,10 +23775,10 @@
       <c r="C20" s="45"/>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="45"/>
       <c r="I20" s="46"/>
       <c r="J20" s="47"/>
@@ -19492,7 +23830,7 @@
     <row r="23" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="72" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="30" t="s">
@@ -19531,7 +23869,7 @@
     <row r="24" spans="1:32" s="23" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="61"/>
+      <c r="C24" s="72"/>
       <c r="E24" s="49">
         <f>ROUNDDOWN(I18*4.5%,-1)</f>
         <v>112180</v>
@@ -19577,8 +23915,8 @@
       <c r="D27" s="52"/>
       <c r="E27" s="52"/>
       <c r="F27" s="52"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
       <c r="I27" s="8"/>
       <c r="J27" s="1"/>
     </row>
@@ -19604,15 +23942,15 @@
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="63"/>
+      <c r="G29" s="67"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="55" t="s">
+      <c r="J29" s="68" t="s">
         <v>11</v>
       </c>
     </row>
@@ -19644,7 +23982,7 @@
       <c r="I30" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J30" s="56"/>
+      <c r="J30" s="69"/>
     </row>
     <row r="31" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="35" t="s">
@@ -19665,7 +24003,7 @@
         <f>SUM(C31:H31)</f>
         <v>2493000</v>
       </c>
-      <c r="J31" s="57">
+      <c r="J31" s="59">
         <f>I31-I32</f>
         <v>2214380</v>
       </c>
@@ -19706,7 +24044,7 @@
         <f>SUM(C32:H32)</f>
         <v>278620</v>
       </c>
-      <c r="J32" s="58"/>
+      <c r="J32" s="60"/>
     </row>
     <row r="33" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
@@ -19728,7 +24066,7 @@
         <f>SUM(C33:H33)</f>
         <v>2021040</v>
       </c>
-      <c r="J33" s="57">
+      <c r="J33" s="59">
         <f>I33-I34</f>
         <v>1795180</v>
       </c>
@@ -19769,7 +24107,7 @@
         <f>SUM(C34:H34)</f>
         <v>225860</v>
       </c>
-      <c r="J34" s="58"/>
+      <c r="J34" s="60"/>
     </row>
     <row r="35" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="21"/>
@@ -19794,7 +24132,7 @@
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="72" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="23"/>
@@ -19818,7 +24156,7 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="61"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="23"/>
       <c r="E38" s="49">
         <f>ROUNDDOWN(I31*4.5%,-1)</f>
@@ -19853,8 +24191,8 @@
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
       <c r="I41" s="8"/>
       <c r="J41" s="1"/>
     </row>
@@ -19880,15 +24218,15 @@
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G43" s="63"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="55" t="s">
+      <c r="J43" s="68" t="s">
         <v>11</v>
       </c>
     </row>
@@ -19920,7 +24258,10 @@
       <c r="I44" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="56"/>
+      <c r="J44" s="69"/>
+      <c r="L44" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="45" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A45" s="35" t="s">
@@ -19941,9 +24282,12 @@
         <f>SUM(C45:H45)</f>
         <v>2493000</v>
       </c>
-      <c r="J45" s="57">
+      <c r="J45" s="59">
         <f>I45-I46</f>
-        <v>2214380</v>
+        <v>2214480</v>
+      </c>
+      <c r="L45" s="3">
+        <v>2493000</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -19963,8 +24307,8 @@
         <v>4980</v>
       </c>
       <c r="E46" s="41">
-        <f>ROUNDDOWN(I45*4.5%,-1)</f>
-        <v>112180</v>
+        <f>ROUNDDOWN(I45*4.5%,-1)-100</f>
+        <v>112080</v>
       </c>
       <c r="F46" s="42">
         <f>ROUNDDOWN(I45*3.335%,-1)</f>
@@ -19980,9 +24324,9 @@
       </c>
       <c r="I46" s="48">
         <f>SUM(C46:H46)</f>
-        <v>278620</v>
-      </c>
-      <c r="J46" s="58"/>
+        <v>278520</v>
+      </c>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A47" s="35" t="s">
@@ -20003,9 +24347,13 @@
         <f>SUM(C47:H47)</f>
         <v>2200000</v>
       </c>
-      <c r="J47" s="57">
+      <c r="J47" s="59">
         <f>I47-I48</f>
         <v>1954110</v>
+      </c>
+      <c r="L47" s="3">
+        <f>2200000+255610</f>
+        <v>2455610</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -20044,7 +24392,7 @@
         <f>SUM(C48:H48)</f>
         <v>245890</v>
       </c>
-      <c r="J48" s="58"/>
+      <c r="J48" s="60"/>
     </row>
     <row r="49" spans="1:19" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A49" s="21"/>
@@ -20054,7 +24402,10 @@
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="H49" s="23">
+        <f>SUM(H48,O57)</f>
+        <v>32920</v>
+      </c>
       <c r="I49" s="24"/>
       <c r="J49" s="25"/>
     </row>
@@ -20087,80 +24438,592 @@
       <c r="J51" s="29" t="s">
         <v>18</v>
       </c>
+      <c r="P51" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="S51" s="2"/>
     </row>
     <row r="52" spans="1:19" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="61"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="23"/>
       <c r="E52" s="49">
-        <f>ROUNDDOWN(I45*4.5%,-1)+ROUNDDOWN(I47*4.5%,-1)</f>
-        <v>211180</v>
+        <f>ROUNDDOWN(I45*4.5%,-1)-100</f>
+        <v>112080</v>
       </c>
       <c r="F52" s="49">
-        <f>ROUNDDOWN(I45*3.335%,-1)+ROUNDDOWN(I47*3.335%,-1)</f>
-        <v>156510</v>
+        <f>ROUNDDOWN(I45*3.335%,-1)</f>
+        <v>83140</v>
       </c>
       <c r="G52" s="49">
         <f>ROUNDDOWN(F52*10.25%,-1)</f>
-        <v>16040</v>
+        <v>8520</v>
       </c>
       <c r="H52" s="49">
-        <f>ROUNDDOWN(I45*1.05%,-1)+ROUNDDOWN(I47*1.05%,-1)</f>
-        <v>49270</v>
+        <f>ROUNDDOWN(I45*1.05%,-1)</f>
+        <v>26170</v>
       </c>
       <c r="I52" s="49">
-        <v>37070</v>
+        <v>19690</v>
       </c>
       <c r="J52" s="50">
         <f>SUM(E52:I52)</f>
-        <v>470070</v>
-      </c>
-      <c r="M52" s="64" t="s">
+        <v>249600</v>
+      </c>
+      <c r="M52" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="58">
         <f>C45*7.9/1000</f>
         <v>19694.7</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="56">
         <f>C47*7.9/1000</f>
         <v>17380</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="56">
         <f>SUM(N52:O52)</f>
         <v>37074.699999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="63"/>
+      <c r="E53" s="49">
+        <f>ROUNDDOWN(I47*4.5%,-1)</f>
+        <v>99000</v>
+      </c>
+      <c r="F53" s="49">
+        <f>ROUNDDOWN(I47*3.335%,-1)</f>
+        <v>73370</v>
+      </c>
+      <c r="G53" s="49">
+        <f>ROUNDDOWN(F53*10.25%,-1)</f>
+        <v>7520</v>
+      </c>
+      <c r="H53" s="49">
+        <f>ROUNDDOWN(I47*1.05%,-1)</f>
+        <v>23100</v>
+      </c>
+      <c r="I53" s="49">
+        <v>17380</v>
+      </c>
+      <c r="J53" s="50">
+        <f>SUM(E53:I53)</f>
+        <v>220370</v>
+      </c>
       <c r="M53" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="N53" s="57"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
       <c r="S53" s="2"/>
     </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" ref="E54:J54" si="0">SUM(E52:E53)</f>
+        <v>211080</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="0"/>
+        <v>156510</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="0"/>
+        <v>16040</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="0"/>
+        <v>49270</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="0"/>
+        <v>37070</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="0"/>
+        <v>469970</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N54" s="57">
+        <f>I53/31*27</f>
+        <v>15137.419354838708</v>
+      </c>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D55" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" s="3">
+        <f>SUM(E54,E46,E48)</f>
+        <v>422160</v>
+      </c>
+      <c r="F55" s="64">
+        <f>SUM(F54:G54,F46:G46,F48:G48)</f>
+        <v>345100</v>
+      </c>
+      <c r="G55" s="64"/>
+      <c r="H55" s="3">
+        <f>SUM(H54,H46,H48,N57,O57)</f>
+        <v>122240</v>
+      </c>
+      <c r="I55" s="3">
+        <f>SUM(I54,N55)</f>
+        <v>52200</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="M55" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N55" s="3">
+        <v>15130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="3">
+        <f>E55-200</f>
+        <v>421960</v>
+      </c>
+      <c r="F56" s="64">
+        <v>345100</v>
+      </c>
+      <c r="G56" s="64"/>
+      <c r="H56" s="3">
+        <f>SUM(H55)</f>
+        <v>122240</v>
+      </c>
+      <c r="I56" s="2">
+        <f>SUM(N55,I54)</f>
+        <v>52200</v>
+      </c>
+      <c r="J56" s="4">
+        <f>SUM(E56:I56)</f>
+        <v>941500</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N56" s="57">
+        <f>H53/31*27</f>
+        <v>20119.354838709678</v>
+      </c>
+      <c r="O56" s="13">
+        <f>H48/31*27</f>
+        <v>15329.032258064517</v>
+      </c>
+      <c r="P56" s="13">
+        <f>SUM(N56:O56)</f>
+        <v>35448.387096774197</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" s="57">
+        <v>20110</v>
+      </c>
+      <c r="O57" s="13">
+        <v>15320</v>
+      </c>
+      <c r="P57" s="13">
+        <f>SUM(N57:O57)</f>
+        <v>35430</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M58" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="67"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="69"/>
+    </row>
+    <row r="63" spans="1:19" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="36">
+        <v>44069</v>
+      </c>
+      <c r="C63" s="37">
+        <v>2493000</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="39">
+        <f>SUM(C63:H63)</f>
+        <v>2493000</v>
+      </c>
+      <c r="J63" s="59">
+        <f>I63-I64</f>
+        <v>2214480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="51">
+        <f>ROUNDDOWN(2493000/209*8,-1)</f>
+        <v>95420</v>
+      </c>
+      <c r="C64" s="41">
+        <f>ROUNDDOWN(I63*2%,-1)</f>
+        <v>49860</v>
+      </c>
+      <c r="D64" s="41">
+        <f>ROUNDDOWN(C64*0.1,-1)</f>
+        <v>4980</v>
+      </c>
+      <c r="E64" s="41">
+        <f>ROUNDDOWN(I63*4.5%,-1)-100</f>
+        <v>112080</v>
+      </c>
+      <c r="F64" s="42">
+        <f>ROUNDDOWN(I63*3.335%,-1)</f>
+        <v>83140</v>
+      </c>
+      <c r="G64" s="42">
+        <f>ROUNDDOWN(F64*10.25%,-1)</f>
+        <v>8520</v>
+      </c>
+      <c r="H64" s="41">
+        <f>ROUNDDOWN(I63*0.8%,-1)</f>
+        <v>19940</v>
+      </c>
+      <c r="I64" s="48">
+        <f>SUM(C64:H64)</f>
+        <v>278520</v>
+      </c>
+      <c r="J64" s="60"/>
+    </row>
+    <row r="65" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A65" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="36">
+        <v>44069</v>
+      </c>
+      <c r="C65" s="37">
+        <v>2200000</v>
+      </c>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39">
+        <f>SUM(C65:H65)</f>
+        <v>2200000</v>
+      </c>
+      <c r="J65" s="59">
+        <f>I65-I66</f>
+        <v>1954110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="51">
+        <f>ROUNDDOWN(2200000/209*8,-1)</f>
+        <v>84210</v>
+      </c>
+      <c r="C66" s="41">
+        <f>ROUNDDOWN(I65*2%,-1)</f>
+        <v>44000</v>
+      </c>
+      <c r="D66" s="41">
+        <f>ROUNDDOWN(C66*0.1,-1)</f>
+        <v>4400</v>
+      </c>
+      <c r="E66" s="41">
+        <f>ROUNDDOWN(I65*4.5%,-1)</f>
+        <v>99000</v>
+      </c>
+      <c r="F66" s="42">
+        <f>ROUNDDOWN(I65*3.335%,-1)</f>
+        <v>73370</v>
+      </c>
+      <c r="G66" s="42">
+        <f>ROUNDDOWN(F66*10.25%,-1)</f>
+        <v>7520</v>
+      </c>
+      <c r="H66" s="41">
+        <f>ROUNDDOWN(I65*0.8%,-1)</f>
+        <v>17600</v>
+      </c>
+      <c r="I66" s="48">
+        <f>SUM(C66:H66)</f>
+        <v>245890</v>
+      </c>
+      <c r="J66" s="60"/>
+    </row>
+    <row r="67" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="25"/>
+    </row>
+    <row r="68" spans="1:10" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+    </row>
+    <row r="69" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="23"/>
+      <c r="E69" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C70" s="62"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="49">
+        <f>ROUNDDOWN(I63*4.5%,-1)-100</f>
+        <v>112080</v>
+      </c>
+      <c r="F70" s="49">
+        <f>ROUNDDOWN(I63*3.335%,-1)</f>
+        <v>83140</v>
+      </c>
+      <c r="G70" s="49">
+        <f>ROUNDDOWN(F70*10.25%,-1)</f>
+        <v>8520</v>
+      </c>
+      <c r="H70" s="49">
+        <f>ROUNDDOWN(I63*1.05%,-1)</f>
+        <v>26170</v>
+      </c>
+      <c r="I70" s="49">
+        <v>19690</v>
+      </c>
+      <c r="J70" s="50">
+        <f>SUM(E70:I70)</f>
+        <v>249600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C71" s="63"/>
+      <c r="E71" s="49">
+        <f>ROUNDDOWN(I65*4.5%,-1)</f>
+        <v>99000</v>
+      </c>
+      <c r="F71" s="49">
+        <f>ROUNDDOWN(I65*3.335%,-1)</f>
+        <v>73370</v>
+      </c>
+      <c r="G71" s="49">
+        <f>ROUNDDOWN(F71*10.25%,-1)</f>
+        <v>7520</v>
+      </c>
+      <c r="H71" s="49">
+        <f>ROUNDDOWN(I65*1.05%,-1)</f>
+        <v>23100</v>
+      </c>
+      <c r="I71" s="49">
+        <v>17380</v>
+      </c>
+      <c r="J71" s="50">
+        <f>SUM(E71:I71)</f>
+        <v>220370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" ref="E72:J72" si="1">SUM(E70:E71)</f>
+        <v>211080</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="1"/>
+        <v>156510</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="1"/>
+        <v>16040</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="1"/>
+        <v>49270</v>
+      </c>
+      <c r="I72" s="3">
+        <f t="shared" si="1"/>
+        <v>37070</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="1"/>
+        <v>469970</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="3">
+        <f>SUM(E72,E64,E66)</f>
+        <v>422160</v>
+      </c>
+      <c r="F73" s="64">
+        <f>SUM(F72:G72,F64:G64,F66:G66)</f>
+        <v>345100</v>
+      </c>
+      <c r="G73" s="64"/>
+      <c r="H73" s="3">
+        <f>SUM(H72,H64,H66)</f>
+        <v>86810</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C51:C52"/>
+  <mergeCells count="31">
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="J61:J62"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="J63:J64"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
